--- a/ClientDB.xlsx
+++ b/ClientDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ABNTFN</t>
   </si>
@@ -50,6 +50,18 @@
   </si>
   <si>
     <t>NSW</t>
+  </si>
+  <si>
+    <t>MakerBot</t>
+  </si>
+  <si>
+    <t>Two Kings</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>NSS</t>
   </si>
 </sst>
 </file>
@@ -105,8 +117,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G3" totalsRowShown="0">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G4" totalsRowShown="0">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="3" name="ABNTFN"/>
     <tableColumn id="4" name="Name/Company"/>
@@ -407,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,6 +477,26 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>101293987</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>2010</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/ClientDB.xlsx
+++ b/ClientDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ABNTFN</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>NSS</t>
+  </si>
+  <si>
+    <t>King2</t>
   </si>
 </sst>
 </file>
@@ -117,8 +120,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G4" totalsRowShown="0">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G5" totalsRowShown="0">
+  <autoFilter ref="A1:G5"/>
   <tableColumns count="7">
     <tableColumn id="3" name="ABNTFN"/>
     <tableColumn id="4" name="Name/Company"/>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,6 +500,29 @@
         <v>2010</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>898989</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>123</v>
+      </c>
+      <c r="D4">
+        <v>123</v>
+      </c>
+      <c r="E4">
+        <v>123</v>
+      </c>
+      <c r="F4">
+        <v>123</v>
+      </c>
+      <c r="G4">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/ClientDB.xlsx
+++ b/ClientDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>ABNTFN</t>
   </si>
@@ -65,6 +65,21 @@
   </si>
   <si>
     <t>King2</t>
+  </si>
+  <si>
+    <t>King3</t>
+  </si>
+  <si>
+    <t>data2</t>
+  </si>
+  <si>
+    <t>data3</t>
+  </si>
+  <si>
+    <t>data4</t>
+  </si>
+  <si>
+    <t>data5</t>
   </si>
 </sst>
 </file>
@@ -422,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,6 +538,29 @@
         <v>123</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>435345</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/ClientDB.xlsx
+++ b/ClientDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ABNTFN</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>King2</t>
+  </si>
+  <si>
+    <t>Data4</t>
+  </si>
+  <si>
+    <t>data1</t>
   </si>
 </sst>
 </file>
@@ -120,8 +126,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G5" totalsRowShown="0">
-  <autoFilter ref="A1:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G6" totalsRowShown="0">
+  <autoFilter ref="A1:G6"/>
   <tableColumns count="7">
     <tableColumn id="3" name="ABNTFN"/>
     <tableColumn id="4" name="Name/Company"/>
@@ -422,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,6 +529,34 @@
         <v>123</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9900909</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>3132</v>
+      </c>
+      <c r="E5">
+        <v>321</v>
+      </c>
+      <c r="F5">
+        <v>321</v>
+      </c>
+      <c r="G5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
